--- a/src/main/java/com/MMT/qa/testdata/MMTPassengerDetails.xlsx
+++ b/src/main/java/com/MMT/qa/testdata/MMTPassengerDetails.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="ContactInformation" sheetId="1" r:id="rId1"/>
-    <sheet name="PassengerDetails" sheetId="2" r:id="rId2"/>
+    <sheet name="PassengerDetails" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,18 +21,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>CountryName</t>
-  </si>
-  <si>
     <t>MobileNo</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>India(91)</t>
-  </si>
-  <si>
     <t>vishalgupta.2711@gmail.com</t>
   </si>
   <si>
@@ -47,6 +40,12 @@
   </si>
   <si>
     <t>Gupta</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>MALE</t>
   </si>
 </sst>
 </file>
@@ -105,10 +104,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -390,81 +390,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8898938122</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>8898938122</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/java/com/MMT/qa/testdata/MMTPassengerDetails.xlsx
+++ b/src/main/java/com/MMT/qa/testdata/MMTPassengerDetails.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>MobileNo</t>
   </si>
@@ -46,13 +46,16 @@
   </si>
   <si>
     <t>MALE</t>
+  </si>
+  <si>
+    <t>8898938122</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +78,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -104,11 +113,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -393,7 +403,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,11 +440,11 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
-        <v>8898938122</v>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>

--- a/src/main/java/com/MMT/qa/testdata/MMTPassengerDetails.xlsx
+++ b/src/main/java/com/MMT/qa/testdata/MMTPassengerDetails.xlsx
@@ -27,28 +27,28 @@
     <t>Email</t>
   </si>
   <si>
-    <t>vishalgupta.2711@gmail.com</t>
-  </si>
-  <si>
     <t>FirstAndMiddleName</t>
   </si>
   <si>
     <t>LastName</t>
   </si>
   <si>
-    <t>VishalRavindra</t>
-  </si>
-  <si>
-    <t>Gupta</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
     <t>MALE</t>
   </si>
   <si>
-    <t>8898938122</t>
+    <t>Vamsi</t>
+  </si>
+  <si>
+    <t>Yellamraju</t>
+  </si>
+  <si>
+    <t>7406683580</t>
+  </si>
+  <si>
+    <t>yvamsipanda9@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,13 +418,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -435,19 +435,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
